--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Specifies the timing phase (e.g., acute, post-acute) in which the procedure was performed relative to the start of the encounter.</t>
+    <t>Extension classifying the procedure into a **timing context** relative to encounter start (acute/post-acute).
+**Primary use-case**
+- Operational reporting where “phase of care” is needed for compliance measures.
+**When to use**
+- When you want a stable, comparable phase label across sites (even if absolute times differ or onset time is uncertain).
+**Interpretation guidance**
+- Use `acute` for procedures within 24 hours of encounter start.
+- Use `post-acute` for procedures after 24 hours.
+- Use `unknown` when encounter/timing data are insufficient.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,9 +261,6 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
@@ -291,6 +296,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -853,10 +861,10 @@
         <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -919,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -927,10 +935,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -941,25 +949,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1010,30 +1018,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1056,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1125,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1144,10 +1152,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1221,10 +1229,10 @@
         <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1249,10 +1257,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1325,7 +1333,7 @@
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>107</v>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-procedure-timing-context-ext.xlsx
+++ b/StructureDefinition-procedure-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
